--- a/1. Documents/설계/기능 정의서_v1.0_20250323.xlsx
+++ b/1. Documents/설계/기능 정의서_v1.0_20250323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\picker\1. Documents\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890C41D-114E-425B-83E4-935681E28D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC801623-1DBF-4047-814B-800920BEB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>기능 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,11 +207,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>익명 투표 설정 / 다중 선택 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중복 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글의 대댓글 작성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익명 투표 설정 / 다중 선택 설정 / 투표 퍼센트 표시 유무 설정 / 투표 종료 시간 설정 / 투표 타입 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -799,122 +807,136 @@
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>46</v>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:E1048576">

--- a/1. Documents/설계/기능 정의서_v1.0_20250323.xlsx
+++ b/1. Documents/설계/기능 정의서_v1.0_20250323.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\picker\1. Documents\설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\picker\1. Documents\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC801623-1DBF-4047-814B-800920BEB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA7A33-FF3D-434C-8F2A-0E333396491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="5640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
